--- a/Documentacion/clasesProyecto.xlsx
+++ b/Documentacion/clasesProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\GestorInmobiliaria\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC83C6-F4B9-45B1-94F4-D60BADAA701D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713202F-AD9A-424E-8932-6C6D94E7535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{B03B7DAC-CE54-49C4-9D60-2D487293A4FC}"/>
   </bookViews>
@@ -658,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +689,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -702,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -710,6 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2146,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A83519-00F7-41CC-85C2-F207E1774A7E}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,13 +2210,13 @@
         <v>44</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2229,13 +2236,13 @@
         <v>47</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2255,13 +2262,13 @@
         <v>50</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2325,13 +2332,13 @@
         <v>187</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2351,13 +2358,13 @@
         <v>55</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2399,13 +2406,13 @@
         <v>59</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2425,13 +2432,13 @@
         <v>62</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2451,13 +2458,13 @@
         <v>65</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2499,7 +2506,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -2569,7 +2576,7 @@
         <v>74</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2639,7 +2646,7 @@
         <v>79</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -2665,7 +2672,7 @@
         <v>82</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -2735,7 +2742,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -2761,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -2787,7 +2794,7 @@
         <v>93</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -2852,7 +2859,7 @@
         <v>192</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="1" t="s">
         <v>193</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3004,7 +3011,7 @@
         <v>103</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -3074,7 +3081,7 @@
         <v>108</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="1" t="s">
         <v>109</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -3100,7 +3107,7 @@
         <v>177</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -3126,7 +3133,7 @@
         <v>111</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -3196,7 +3203,7 @@
         <v>116</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J46" s="4" t="s">

--- a/Documentacion/clasesProyecto.xlsx
+++ b/Documentacion/clasesProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\GestorInmobiliaria\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0713202F-AD9A-424E-8932-6C6D94E7535C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FEE26-146C-48CE-8E3F-1D448AE491E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{B03B7DAC-CE54-49C4-9D60-2D487293A4FC}"/>
   </bookViews>
@@ -658,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,19 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,15 +696,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A83519-00F7-41CC-85C2-F207E1774A7E}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,22 +2184,22 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>160</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -2224,22 +2210,22 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>161</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -2250,22 +2236,22 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2276,66 +2262,66 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>189</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2346,22 +2332,22 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>163</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2372,44 +2358,44 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>164</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2420,22 +2406,22 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>165</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2446,25 +2432,25 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2472,47 +2458,47 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2520,69 +2506,69 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2590,69 +2576,69 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2660,25 +2646,25 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2686,69 +2672,69 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2756,25 +2742,25 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2782,25 +2768,25 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2808,64 +2794,64 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2873,125 +2859,125 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2999,25 +2985,25 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3025,69 +3011,69 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3095,25 +3081,25 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3121,25 +3107,25 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3147,69 +3133,69 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="1" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Documentacion/clasesProyecto.xlsx
+++ b/Documentacion/clasesProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\GestorInmobiliaria\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FEE26-146C-48CE-8E3F-1D448AE491E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993032C-B339-48D9-95D0-DE3379DA3A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{B03B7DAC-CE54-49C4-9D60-2D487293A4FC}"/>
   </bookViews>
@@ -2139,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A83519-00F7-41CC-85C2-F207E1774A7E}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2202,7 @@
       <c r="J4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="J5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       <c r="J6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       <c r="J9" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       <c r="J10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="J12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       <c r="J13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       <c r="J14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="J16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       <c r="J19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       <c r="J22" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       <c r="J23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="J26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       <c r="J27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="J28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="J31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       <c r="J37" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       <c r="J38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       <c r="J41" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="J42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="J43" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       <c r="J46" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
